--- a/src/main/resources/templete/绩效目标模板.xlsx
+++ b/src/main/resources/templete/绩效目标模板.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
@@ -144,7 +144,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +181,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -249,11 +264,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -275,12 +299,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -562,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:H6"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -575,126 +596,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="2" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="1" t="s">
         <v>13</v>
       </c>
@@ -703,26 +724,49 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="2" t="s">
         <v>24</v>
       </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="13"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="13"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="14"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="13"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="18">

--- a/src/main/resources/templete/绩效目标模板.xlsx
+++ b/src/main/resources/templete/绩效目标模板.xlsx
@@ -275,33 +275,33 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -596,126 +596,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="5" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
+      <c r="E6" s="12"/>
+      <c r="F6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="11"/>
       <c r="G9" s="1" t="s">
         <v>13</v>
       </c>
@@ -730,14 +730,14 @@
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="2" t="s">
         <v>20</v>
       </c>
@@ -746,37 +746,30 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="13"/>
+      <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
+      <c r="B15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="13"/>
+      <c r="B16" s="5"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="14"/>
+      <c r="B17" s="6"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="13"/>
+      <c r="B18" s="5"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
+      <c r="B19" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="A6:C6"/>
@@ -788,6 +781,13 @@
     <mergeCell ref="C8:D9"/>
     <mergeCell ref="E8:H8"/>
     <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
